--- a/Program/Other/Sharepoint上傳用/測試FT/L5/L5060/FT_L5060.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L5/L5060/FT_L5060.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L5\L5060\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15556B9-3F9E-407D-8AC6-3553BF74CB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2807A5-85CD-4F91-A62F-3F84363ECB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,9 +441,6 @@
     <t>L5</t>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.65.docx</t>
-  </si>
-  <si>
     <t>1.當[查詢身分別]等於1~3時可不輸入,預設值為0
 2.若有輸入則限輸入代碼,檢核條件：依選單/V(H)
 以下欄位[逾期期數]、[逾期天數]依[逾期期數/天數]欄位值分別顯示</t>
@@ -457,6 +454,9 @@
   <si>
     <t>1.預設值為00全部,若有輸入則限輸入空白或代碼，不為空白時，檢核條件：依選單/V(H)</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.64.DOCX</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1092,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>21</v>
@@ -1136,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1182,7 +1182,7 @@
         <v>110</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1228,7 +1228,7 @@
         <v>110</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1277,7 +1277,7 @@
         <v>110</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1372,7 +1372,7 @@
         <v>110</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1418,7 +1418,7 @@
         <v>110</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1467,7 +1467,7 @@
         <v>110</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1513,7 +1513,7 @@
         <v>110</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1562,7 +1562,7 @@
         <v>110</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1609,7 +1609,7 @@
         <v>110</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1658,7 +1658,7 @@
         <v>110</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1704,7 +1704,7 @@
         <v>110</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1750,7 +1750,7 @@
         <v>110</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1778,7 +1778,7 @@
         <v>59</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>12</v>
@@ -1796,7 +1796,7 @@
         <v>110</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1842,7 +1842,7 @@
         <v>110</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1888,7 +1888,7 @@
         <v>110</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1916,7 +1916,7 @@
         <v>64</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>12</v>
@@ -1934,7 +1934,7 @@
         <v>110</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1962,7 +1962,7 @@
         <v>65</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>12</v>
@@ -1980,7 +1980,7 @@
         <v>110</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -2026,7 +2026,7 @@
         <v>110</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2075,7 +2075,7 @@
         <v>110</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2124,7 +2124,7 @@
         <v>110</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -2173,7 +2173,7 @@
         <v>110</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -2222,7 +2222,7 @@
         <v>110</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -2271,7 +2271,7 @@
         <v>110</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -2320,7 +2320,7 @@
         <v>110</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -2369,7 +2369,7 @@
         <v>110</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -2418,7 +2418,7 @@
         <v>110</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -2467,7 +2467,7 @@
         <v>110</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2516,7 +2516,7 @@
         <v>110</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -2565,7 +2565,7 @@
         <v>110</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2614,7 +2614,7 @@
         <v>110</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -2663,7 +2663,7 @@
         <v>110</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -2712,7 +2712,7 @@
         <v>110</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -2761,7 +2761,7 @@
         <v>110</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -2810,7 +2810,7 @@
         <v>110</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -2859,7 +2859,7 @@
         <v>110</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2908,7 +2908,7 @@
         <v>110</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>

--- a/Program/Other/Sharepoint上傳用/測試FT/L5/L5060/FT_L5060.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L5/L5060/FT_L5060.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L5\L5060\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2807A5-85CD-4F91-A62F-3F84363ECB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEBEA66-B93D-41AF-8F9E-3FBDC6A4380D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="116">
   <si>
     <t>目錄名稱</t>
   </si>
@@ -345,12 +345,6 @@
     <t>[輸出欄位]法務人員</t>
   </si>
   <si>
-    <t>[按鈕]同擔保品</t>
-  </si>
-  <si>
-    <t>[輸出欄位]是否指定</t>
-  </si>
-  <si>
     <t>[輸出欄位]戶況</t>
   </si>
   <si>
@@ -456,7 +450,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.64.DOCX</t>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.65.DOCX</t>
+  </si>
+  <si>
+    <t>[按鈕]同擔保品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[按鈕]是否指定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>連結至【L5607個案人員指派維護】</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -981,7 +987,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1089,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>14</v>
@@ -1092,13 +1098,13 @@
         <v>15</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="Q2" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1127,7 +1133,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>14</v>
@@ -1136,7 +1142,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1144,7 +1150,7 @@
         <v>21</v>
       </c>
       <c r="Q3" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1173,16 +1179,16 @@
         <v>13</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1190,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="Q4" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1219,16 +1225,16 @@
         <v>13</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1236,7 +1242,7 @@
         <v>21</v>
       </c>
       <c r="Q5" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1268,16 +1274,16 @@
         <v>13</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1285,7 +1291,7 @@
         <v>21</v>
       </c>
       <c r="Q6" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1314,16 +1320,16 @@
         <v>13</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1331,7 +1337,7 @@
         <v>21</v>
       </c>
       <c r="Q7" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1363,16 +1369,16 @@
         <v>13</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1380,7 +1386,7 @@
         <v>21</v>
       </c>
       <c r="Q8" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1409,16 +1415,16 @@
         <v>13</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1426,7 +1432,7 @@
         <v>21</v>
       </c>
       <c r="Q9" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1458,16 +1464,16 @@
         <v>13</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1475,7 +1481,7 @@
         <v>21</v>
       </c>
       <c r="Q10" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1504,16 +1510,16 @@
         <v>13</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1521,7 +1527,7 @@
         <v>21</v>
       </c>
       <c r="Q11" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1553,16 +1559,16 @@
         <v>13</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1570,7 +1576,7 @@
         <v>21</v>
       </c>
       <c r="Q12" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1600,16 +1606,16 @@
         <v>13</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1617,7 +1623,7 @@
         <v>21</v>
       </c>
       <c r="Q13" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1649,16 +1655,16 @@
         <v>13</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1666,7 +1672,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1695,16 +1701,16 @@
         <v>13</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1712,7 +1718,7 @@
         <v>21</v>
       </c>
       <c r="Q15" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1741,16 +1747,16 @@
         <v>13</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1758,7 +1764,7 @@
         <v>21</v>
       </c>
       <c r="Q16" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1778,7 +1784,7 @@
         <v>59</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>12</v>
@@ -1787,16 +1793,16 @@
         <v>13</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1804,7 +1810,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1833,16 +1839,16 @@
         <v>13</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1850,7 +1856,7 @@
         <v>21</v>
       </c>
       <c r="Q18" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1879,16 +1885,16 @@
         <v>13</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -1896,7 +1902,7 @@
         <v>21</v>
       </c>
       <c r="Q19" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1916,7 +1922,7 @@
         <v>64</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>12</v>
@@ -1925,16 +1931,16 @@
         <v>13</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1942,7 +1948,7 @@
         <v>21</v>
       </c>
       <c r="Q20" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -1962,7 +1968,7 @@
         <v>65</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>12</v>
@@ -1971,16 +1977,16 @@
         <v>13</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -1988,7 +1994,7 @@
         <v>21</v>
       </c>
       <c r="Q21" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="97.2" x14ac:dyDescent="0.2">
@@ -2005,7 +2011,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>66</v>
@@ -2017,16 +2023,16 @@
         <v>13</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2034,7 +2040,7 @@
         <v>21</v>
       </c>
       <c r="Q22" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2051,7 +2057,7 @@
         <v>26</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>67</v>
@@ -2066,16 +2072,16 @@
         <v>13</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2083,7 +2089,7 @@
         <v>21</v>
       </c>
       <c r="Q23" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2103,10 +2109,10 @@
         <v>69</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>12</v>
@@ -2115,16 +2121,16 @@
         <v>13</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -2132,7 +2138,7 @@
         <v>21</v>
       </c>
       <c r="Q24" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2152,10 +2158,10 @@
         <v>70</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>12</v>
@@ -2164,16 +2170,16 @@
         <v>13</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -2181,7 +2187,7 @@
         <v>21</v>
       </c>
       <c r="Q25" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2201,10 +2207,10 @@
         <v>71</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>12</v>
@@ -2213,16 +2219,16 @@
         <v>13</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -2230,7 +2236,7 @@
         <v>21</v>
       </c>
       <c r="Q26" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2250,10 +2256,10 @@
         <v>72</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>12</v>
@@ -2262,16 +2268,16 @@
         <v>13</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -2279,7 +2285,7 @@
         <v>21</v>
       </c>
       <c r="Q27" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2299,10 +2305,10 @@
         <v>73</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>12</v>
@@ -2311,16 +2317,16 @@
         <v>13</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -2328,7 +2334,7 @@
         <v>21</v>
       </c>
       <c r="Q28" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2348,10 +2354,10 @@
         <v>74</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>12</v>
@@ -2360,16 +2366,16 @@
         <v>13</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -2377,7 +2383,7 @@
         <v>21</v>
       </c>
       <c r="Q29" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2397,10 +2403,10 @@
         <v>75</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>12</v>
@@ -2409,16 +2415,16 @@
         <v>13</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -2426,7 +2432,7 @@
         <v>21</v>
       </c>
       <c r="Q30" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2446,10 +2452,10 @@
         <v>76</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>12</v>
@@ -2458,16 +2464,16 @@
         <v>13</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2475,7 +2481,7 @@
         <v>21</v>
       </c>
       <c r="Q31" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2495,10 +2501,10 @@
         <v>77</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>12</v>
@@ -2507,16 +2513,16 @@
         <v>13</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -2524,7 +2530,7 @@
         <v>21</v>
       </c>
       <c r="Q32" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2544,10 +2550,10 @@
         <v>78</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>12</v>
@@ -2556,16 +2562,16 @@
         <v>13</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2573,7 +2579,7 @@
         <v>21</v>
       </c>
       <c r="Q33" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2593,10 +2599,10 @@
         <v>79</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>12</v>
@@ -2605,16 +2611,16 @@
         <v>13</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -2622,7 +2628,7 @@
         <v>21</v>
       </c>
       <c r="Q34" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2642,10 +2648,10 @@
         <v>80</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>12</v>
@@ -2654,16 +2660,16 @@
         <v>13</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -2671,7 +2677,7 @@
         <v>21</v>
       </c>
       <c r="Q35" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2691,10 +2697,10 @@
         <v>81</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>12</v>
@@ -2703,16 +2709,16 @@
         <v>13</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -2720,7 +2726,7 @@
         <v>21</v>
       </c>
       <c r="Q36" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2737,10 +2743,10 @@
         <v>26</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>68</v>
@@ -2752,16 +2758,16 @@
         <v>13</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -2769,7 +2775,7 @@
         <v>21</v>
       </c>
       <c r="Q37" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2786,13 +2792,13 @@
         <v>26</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>104</v>
+        <v>95</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>12</v>
@@ -2801,16 +2807,16 @@
         <v>13</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -2818,7 +2824,7 @@
         <v>21</v>
       </c>
       <c r="Q38" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2835,13 +2841,13 @@
         <v>26</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>12</v>
@@ -2850,16 +2856,16 @@
         <v>13</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2867,7 +2873,7 @@
         <v>21</v>
       </c>
       <c r="Q39" s="13">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2884,14 +2890,14 @@
         <v>26</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F40" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="23" t="s">
-        <v>104</v>
-      </c>
       <c r="H40" s="11" t="s">
         <v>12</v>
       </c>
@@ -2899,16 +2905,16 @@
         <v>13</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
@@ -2916,7 +2922,7 @@
         <v>21</v>
       </c>
       <c r="Q40" s="24">
-        <v>44602</v>
+        <v>44608</v>
       </c>
     </row>
   </sheetData>
